--- a/biology/Zoologie/Chalcides_ragazzii/Chalcides_ragazzii.xlsx
+++ b/biology/Zoologie/Chalcides_ragazzii/Chalcides_ragazzii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalcides ragazzii est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalcides ragazzii est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Niger, dans le nord de la Somalie, dans le Nord du Kenya, en Éthiopie et en Érythrée. Sa présence est incertaine au Soudan et au Soudan du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Niger, dans le nord de la Somalie, dans le Nord du Kenya, en Éthiopie et en Érythrée. Sa présence est incertaine au Soudan et au Soudan du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Vincenzo Ragazzi (1856-1929)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Vincenzo Ragazzi (1856-1929).
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1890 : On the varieties of Chalcides ocellatus, Forsk. Annals and magazine of natural history, sér. 6, vol. 5, p. 444-445 (texte intégral).</t>
         </is>
